--- a/rentals.xlsx
+++ b/rentals.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\black\Documents\DS401COLCalculator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\black\Documents\School\DS401COLCalculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CBE3C9-07EA-4253-8E31-B5526449D9EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DC4234-B674-41D3-8235-B3EDF035719A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="195">
   <si>
     <t>SUNY College of Technology at Alfred</t>
   </si>
@@ -602,6 +602,9 @@
   </si>
   <si>
     <t>Eastern Michigan University</t>
+  </si>
+  <si>
+    <t>North Carolina State University</t>
   </si>
 </sst>
 </file>
@@ -1442,10 +1445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:GL43"/>
+  <dimension ref="A1:GM43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="GH1" workbookViewId="0">
-      <selection activeCell="GI7" sqref="GI7"/>
+      <selection activeCell="GO8" sqref="GO8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1646,7 +1649,7 @@
     <col min="194" max="194" width="23.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:194" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:195" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2229,8 +2232,11 @@
       <c r="GL1" t="s">
         <v>193</v>
       </c>
+      <c r="GM1" t="s">
+        <v>194</v>
+      </c>
     </row>
-    <row r="2" spans="1:194" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:195" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1372</v>
       </c>
@@ -2813,8 +2819,11 @@
       <c r="GL2">
         <v>1436.5</v>
       </c>
+      <c r="GM2">
+        <v>1440</v>
+      </c>
     </row>
-    <row r="3" spans="1:194" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:195" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>700</v>
       </c>
@@ -3397,8 +3406,11 @@
       <c r="GL3">
         <v>1893.5</v>
       </c>
+      <c r="GM3">
+        <v>1257.5</v>
+      </c>
     </row>
-    <row r="4" spans="1:194" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:195" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>787.5</v>
       </c>
@@ -3981,8 +3993,11 @@
       <c r="GL4">
         <v>1541.5</v>
       </c>
+      <c r="GM4">
+        <v>1480</v>
+      </c>
     </row>
-    <row r="5" spans="1:194" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:195" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -4565,8 +4580,11 @@
       <c r="GL5">
         <v>1499</v>
       </c>
+      <c r="GM5">
+        <v>1367</v>
+      </c>
     </row>
-    <row r="6" spans="1:194" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:195" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
@@ -5149,8 +5167,11 @@
       <c r="GL6">
         <v>1022</v>
       </c>
+      <c r="GM6">
+        <v>1282.5</v>
+      </c>
     </row>
-    <row r="7" spans="1:194" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:195" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
@@ -5733,8 +5754,11 @@
       <c r="GL7">
         <v>1060</v>
       </c>
+      <c r="GM7">
+        <v>1609</v>
+      </c>
     </row>
-    <row r="8" spans="1:194" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:195" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0</v>
       </c>
@@ -6317,8 +6341,11 @@
       <c r="GL8">
         <v>1059</v>
       </c>
+      <c r="GM8">
+        <v>1798.5</v>
+      </c>
     </row>
-    <row r="9" spans="1:194" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:195" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
@@ -6901,8 +6928,11 @@
       <c r="GL9">
         <v>1379</v>
       </c>
+      <c r="GM9">
+        <v>1515</v>
+      </c>
     </row>
-    <row r="10" spans="1:194" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:195" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0</v>
       </c>
@@ -7485,8 +7515,11 @@
       <c r="GL10">
         <v>1180</v>
       </c>
+      <c r="GM10">
+        <v>1351.5</v>
+      </c>
     </row>
-    <row r="11" spans="1:194" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:195" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0</v>
       </c>
@@ -8069,8 +8102,11 @@
       <c r="GL11">
         <v>1117.5</v>
       </c>
+      <c r="GM11">
+        <v>1377.5</v>
+      </c>
     </row>
-    <row r="12" spans="1:194" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:195" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0</v>
       </c>
@@ -8653,8 +8689,11 @@
       <c r="GL12">
         <v>1102.5</v>
       </c>
+      <c r="GM12">
+        <v>1680</v>
+      </c>
     </row>
-    <row r="13" spans="1:194" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:195" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0</v>
       </c>
@@ -9237,8 +9276,11 @@
       <c r="GL13">
         <v>975</v>
       </c>
+      <c r="GM13">
+        <v>1551.5</v>
+      </c>
     </row>
-    <row r="14" spans="1:194" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:195" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0</v>
       </c>
@@ -9821,8 +9863,11 @@
       <c r="GL14">
         <v>1062.5</v>
       </c>
+      <c r="GM14">
+        <v>1166.5</v>
+      </c>
     </row>
-    <row r="15" spans="1:194" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:195" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0</v>
       </c>
@@ -10405,8 +10450,11 @@
       <c r="GL15">
         <v>949</v>
       </c>
+      <c r="GM15">
+        <v>1495</v>
+      </c>
     </row>
-    <row r="16" spans="1:194" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:195" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0</v>
       </c>
@@ -10989,8 +11037,11 @@
       <c r="GL16">
         <v>850</v>
       </c>
+      <c r="GM16">
+        <v>2294.5</v>
+      </c>
     </row>
-    <row r="17" spans="1:194" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:195" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0</v>
       </c>
@@ -11573,8 +11624,11 @@
       <c r="GL17">
         <v>1063.5</v>
       </c>
+      <c r="GM17">
+        <v>1942</v>
+      </c>
     </row>
-    <row r="18" spans="1:194" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:195" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0</v>
       </c>
@@ -12157,8 +12211,11 @@
       <c r="GL18">
         <v>1079</v>
       </c>
+      <c r="GM18">
+        <v>1699.5</v>
+      </c>
     </row>
-    <row r="19" spans="1:194" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:195" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0</v>
       </c>
@@ -12741,8 +12798,11 @@
       <c r="GL19">
         <v>929</v>
       </c>
+      <c r="GM19">
+        <v>1405</v>
+      </c>
     </row>
-    <row r="20" spans="1:194" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:195" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0</v>
       </c>
@@ -13325,8 +13385,11 @@
       <c r="GL20">
         <v>1162.5</v>
       </c>
+      <c r="GM20">
+        <v>1548</v>
+      </c>
     </row>
-    <row r="21" spans="1:194" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:195" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0</v>
       </c>
@@ -13909,8 +13972,11 @@
       <c r="GL21">
         <v>1254.5</v>
       </c>
+      <c r="GM21">
+        <v>1060.5</v>
+      </c>
     </row>
-    <row r="22" spans="1:194" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:195" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0</v>
       </c>
@@ -14493,8 +14559,11 @@
       <c r="GL22">
         <v>945</v>
       </c>
+      <c r="GM22">
+        <v>1147</v>
+      </c>
     </row>
-    <row r="23" spans="1:194" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:195" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>0</v>
       </c>
@@ -15077,8 +15146,11 @@
       <c r="GL23">
         <v>1200</v>
       </c>
+      <c r="GM23">
+        <v>1641.5</v>
+      </c>
     </row>
-    <row r="24" spans="1:194" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:195" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0</v>
       </c>
@@ -15661,8 +15733,11 @@
       <c r="GL24">
         <v>1349</v>
       </c>
+      <c r="GM24">
+        <v>1653.5</v>
+      </c>
     </row>
-    <row r="25" spans="1:194" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:195" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>0</v>
       </c>
@@ -16245,8 +16320,11 @@
       <c r="GL25">
         <v>1325</v>
       </c>
+      <c r="GM25">
+        <v>1545.5</v>
+      </c>
     </row>
-    <row r="26" spans="1:194" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:195" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>0</v>
       </c>
@@ -16829,8 +16907,11 @@
       <c r="GL26">
         <v>872.5</v>
       </c>
+      <c r="GM26">
+        <v>2110.5</v>
+      </c>
     </row>
-    <row r="27" spans="1:194" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:195" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>0</v>
       </c>
@@ -17413,8 +17494,11 @@
       <c r="GL27">
         <v>955</v>
       </c>
+      <c r="GM27">
+        <v>2135</v>
+      </c>
     </row>
-    <row r="28" spans="1:194" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:195" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>0</v>
       </c>
@@ -17997,8 +18081,11 @@
       <c r="GL28">
         <v>862.5</v>
       </c>
+      <c r="GM28">
+        <v>2113.5</v>
+      </c>
     </row>
-    <row r="29" spans="1:194" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:195" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>0</v>
       </c>
@@ -18581,8 +18668,11 @@
       <c r="GL29">
         <v>995</v>
       </c>
+      <c r="GM29">
+        <v>1862.5</v>
+      </c>
     </row>
-    <row r="30" spans="1:194" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:195" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>0</v>
       </c>
@@ -19165,8 +19255,11 @@
       <c r="GL30">
         <v>1336</v>
       </c>
+      <c r="GM30">
+        <v>1467</v>
+      </c>
     </row>
-    <row r="31" spans="1:194" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:195" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>0</v>
       </c>
@@ -19749,8 +19842,11 @@
       <c r="GL31">
         <v>900</v>
       </c>
+      <c r="GM31">
+        <v>1435</v>
+      </c>
     </row>
-    <row r="32" spans="1:194" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:195" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>0</v>
       </c>
@@ -20333,8 +20429,11 @@
       <c r="GL32">
         <v>975</v>
       </c>
+      <c r="GM32">
+        <v>1215</v>
+      </c>
     </row>
-    <row r="33" spans="1:194" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:195" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>0</v>
       </c>
@@ -20917,8 +21016,11 @@
       <c r="GL33">
         <v>715</v>
       </c>
+      <c r="GM33">
+        <v>1938</v>
+      </c>
     </row>
-    <row r="34" spans="1:194" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:195" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>0</v>
       </c>
@@ -21501,8 +21603,11 @@
       <c r="GL34">
         <v>0</v>
       </c>
+      <c r="GM34">
+        <v>1391.5</v>
+      </c>
     </row>
-    <row r="35" spans="1:194" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:195" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>0</v>
       </c>
@@ -22085,8 +22190,11 @@
       <c r="GL35">
         <v>0</v>
       </c>
+      <c r="GM35">
+        <v>1216</v>
+      </c>
     </row>
-    <row r="36" spans="1:194" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:195" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>0</v>
       </c>
@@ -22669,8 +22777,11 @@
       <c r="GL36">
         <v>0</v>
       </c>
+      <c r="GM36">
+        <v>1127</v>
+      </c>
     </row>
-    <row r="37" spans="1:194" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:195" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>0</v>
       </c>
@@ -23253,8 +23364,11 @@
       <c r="GL37">
         <v>0</v>
       </c>
+      <c r="GM37">
+        <v>2039</v>
+      </c>
     </row>
-    <row r="38" spans="1:194" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:195" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>0</v>
       </c>
@@ -23837,8 +23951,11 @@
       <c r="GL38">
         <v>0</v>
       </c>
+      <c r="GM38">
+        <v>1795</v>
+      </c>
     </row>
-    <row r="39" spans="1:194" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:195" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>0</v>
       </c>
@@ -24421,8 +24538,11 @@
       <c r="GL39">
         <v>0</v>
       </c>
+      <c r="GM39">
+        <v>1321</v>
+      </c>
     </row>
-    <row r="40" spans="1:194" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:195" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>0</v>
       </c>
@@ -25005,8 +25125,11 @@
       <c r="GL40">
         <v>0</v>
       </c>
+      <c r="GM40">
+        <v>1127.5</v>
+      </c>
     </row>
-    <row r="41" spans="1:194" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:195" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>0</v>
       </c>
@@ -25589,8 +25712,11 @@
       <c r="GL41">
         <v>0</v>
       </c>
+      <c r="GM41">
+        <v>1472.5</v>
+      </c>
     </row>
-    <row r="42" spans="1:194" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:195" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>0</v>
       </c>
@@ -26173,8 +26299,11 @@
       <c r="GL42">
         <v>0</v>
       </c>
+      <c r="GM42">
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:194" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:195" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>0</v>
       </c>
@@ -26755,6 +26884,9 @@
         <v>0</v>
       </c>
       <c r="GL43">
+        <v>0</v>
+      </c>
+      <c r="GM43">
         <v>0</v>
       </c>
     </row>

--- a/rentals.xlsx
+++ b/rentals.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\black\Documents\School\DS401COLCalculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DC4234-B674-41D3-8235-B3EDF035719A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC20C22-5C6C-4383-B77C-5913785C3940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Apartment Prices Granular" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="196">
   <si>
     <t>SUNY College of Technology at Alfred</t>
   </si>
@@ -606,12 +606,15 @@
   <si>
     <t>North Carolina State University</t>
   </si>
+  <si>
+    <t>Ohio State University</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -745,6 +748,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1088,8 +1097,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1445,10 +1455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:GM43"/>
+  <dimension ref="A1:GO43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="GH1" workbookViewId="0">
-      <selection activeCell="GO8" sqref="GO8"/>
+    <sheetView tabSelected="1" topLeftCell="GL7" workbookViewId="0">
+      <selection activeCell="GQ19" sqref="GQ19:GU34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1649,7 +1659,7 @@
     <col min="194" max="194" width="23.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:195" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:197" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2235,8 +2245,14 @@
       <c r="GM1" t="s">
         <v>194</v>
       </c>
+      <c r="GN1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="GO1" s="1" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="2" spans="1:195" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:197" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1372</v>
       </c>
@@ -2822,8 +2838,14 @@
       <c r="GM2">
         <v>1440</v>
       </c>
+      <c r="GN2">
+        <v>1450.5</v>
+      </c>
+      <c r="GO2">
+        <v>1669</v>
+      </c>
     </row>
-    <row r="3" spans="1:195" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:197" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>700</v>
       </c>
@@ -3409,8 +3431,14 @@
       <c r="GM3">
         <v>1257.5</v>
       </c>
+      <c r="GN3">
+        <v>1218</v>
+      </c>
+      <c r="GO3">
+        <v>1324</v>
+      </c>
     </row>
-    <row r="4" spans="1:195" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:197" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>787.5</v>
       </c>
@@ -3996,8 +4024,14 @@
       <c r="GM4">
         <v>1480</v>
       </c>
+      <c r="GN4">
+        <v>1320</v>
+      </c>
+      <c r="GO4">
+        <v>1280</v>
+      </c>
     </row>
-    <row r="5" spans="1:195" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:197" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -4583,8 +4617,14 @@
       <c r="GM5">
         <v>1367</v>
       </c>
+      <c r="GN5">
+        <v>1200</v>
+      </c>
+      <c r="GO5">
+        <v>1561.5</v>
+      </c>
     </row>
-    <row r="6" spans="1:195" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:197" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
@@ -5170,8 +5210,14 @@
       <c r="GM6">
         <v>1282.5</v>
       </c>
+      <c r="GN6">
+        <v>1343</v>
+      </c>
+      <c r="GO6">
+        <v>1406.5</v>
+      </c>
     </row>
-    <row r="7" spans="1:195" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:197" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
@@ -5757,8 +5803,14 @@
       <c r="GM7">
         <v>1609</v>
       </c>
+      <c r="GN7">
+        <v>2612.5</v>
+      </c>
+      <c r="GO7">
+        <v>1755</v>
+      </c>
     </row>
-    <row r="8" spans="1:195" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:197" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0</v>
       </c>
@@ -6344,8 +6396,14 @@
       <c r="GM8">
         <v>1798.5</v>
       </c>
+      <c r="GN8">
+        <v>1670.5</v>
+      </c>
+      <c r="GO8">
+        <v>1447</v>
+      </c>
     </row>
-    <row r="9" spans="1:195" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:197" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
@@ -6931,8 +6989,14 @@
       <c r="GM9">
         <v>1515</v>
       </c>
+      <c r="GN9">
+        <v>1640</v>
+      </c>
+      <c r="GO9">
+        <v>975</v>
+      </c>
     </row>
-    <row r="10" spans="1:195" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:197" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0</v>
       </c>
@@ -7518,8 +7582,14 @@
       <c r="GM10">
         <v>1351.5</v>
       </c>
+      <c r="GN10">
+        <v>1625</v>
+      </c>
+      <c r="GO10">
+        <v>1426.5</v>
+      </c>
     </row>
-    <row r="11" spans="1:195" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:197" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0</v>
       </c>
@@ -8105,8 +8175,14 @@
       <c r="GM11">
         <v>1377.5</v>
       </c>
+      <c r="GN11">
+        <v>1537.5</v>
+      </c>
+      <c r="GO11">
+        <v>1382</v>
+      </c>
     </row>
-    <row r="12" spans="1:195" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:197" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0</v>
       </c>
@@ -8692,8 +8768,14 @@
       <c r="GM12">
         <v>1680</v>
       </c>
+      <c r="GN12">
+        <v>1125.5</v>
+      </c>
+      <c r="GO12">
+        <v>1552.5</v>
+      </c>
     </row>
-    <row r="13" spans="1:195" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:197" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0</v>
       </c>
@@ -9279,8 +9361,14 @@
       <c r="GM13">
         <v>1551.5</v>
       </c>
+      <c r="GN13">
+        <v>1145</v>
+      </c>
+      <c r="GO13">
+        <v>1425</v>
+      </c>
     </row>
-    <row r="14" spans="1:195" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:197" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0</v>
       </c>
@@ -9866,8 +9954,14 @@
       <c r="GM14">
         <v>1166.5</v>
       </c>
+      <c r="GN14">
+        <v>1100</v>
+      </c>
+      <c r="GO14">
+        <v>1237.5</v>
+      </c>
     </row>
-    <row r="15" spans="1:195" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:197" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0</v>
       </c>
@@ -10453,8 +10547,14 @@
       <c r="GM15">
         <v>1495</v>
       </c>
+      <c r="GN15">
+        <v>1014</v>
+      </c>
+      <c r="GO15">
+        <v>1237.5</v>
+      </c>
     </row>
-    <row r="16" spans="1:195" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:197" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0</v>
       </c>
@@ -11040,8 +11140,14 @@
       <c r="GM16">
         <v>2294.5</v>
       </c>
+      <c r="GN16">
+        <v>960</v>
+      </c>
+      <c r="GO16">
+        <v>1268.5</v>
+      </c>
     </row>
-    <row r="17" spans="1:195" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:197" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0</v>
       </c>
@@ -11627,8 +11733,14 @@
       <c r="GM17">
         <v>1942</v>
       </c>
+      <c r="GN17">
+        <v>1500</v>
+      </c>
+      <c r="GO17">
+        <v>1049</v>
+      </c>
     </row>
-    <row r="18" spans="1:195" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:197" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0</v>
       </c>
@@ -12214,8 +12326,14 @@
       <c r="GM18">
         <v>1699.5</v>
       </c>
+      <c r="GN18">
+        <v>1164</v>
+      </c>
+      <c r="GO18">
+        <v>1208</v>
+      </c>
     </row>
-    <row r="19" spans="1:195" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:197" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0</v>
       </c>
@@ -12801,8 +12919,14 @@
       <c r="GM19">
         <v>1405</v>
       </c>
+      <c r="GN19">
+        <v>1695</v>
+      </c>
+      <c r="GO19">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="20" spans="1:195" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:197" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0</v>
       </c>
@@ -13388,8 +13512,14 @@
       <c r="GM20">
         <v>1548</v>
       </c>
+      <c r="GN20">
+        <v>847.5</v>
+      </c>
+      <c r="GO20">
+        <v>1297.5</v>
+      </c>
     </row>
-    <row r="21" spans="1:195" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:197" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0</v>
       </c>
@@ -13975,8 +14105,14 @@
       <c r="GM21">
         <v>1060.5</v>
       </c>
+      <c r="GN21">
+        <v>1002.5</v>
+      </c>
+      <c r="GO21">
+        <v>1115</v>
+      </c>
     </row>
-    <row r="22" spans="1:195" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:197" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0</v>
       </c>
@@ -14562,8 +14698,14 @@
       <c r="GM22">
         <v>1147</v>
       </c>
+      <c r="GN22">
+        <v>999</v>
+      </c>
+      <c r="GO22">
+        <v>995</v>
+      </c>
     </row>
-    <row r="23" spans="1:195" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:197" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>0</v>
       </c>
@@ -15149,8 +15291,14 @@
       <c r="GM23">
         <v>1641.5</v>
       </c>
+      <c r="GN23">
+        <v>885</v>
+      </c>
+      <c r="GO23">
+        <v>1010</v>
+      </c>
     </row>
-    <row r="24" spans="1:195" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:197" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0</v>
       </c>
@@ -15736,8 +15884,14 @@
       <c r="GM24">
         <v>1653.5</v>
       </c>
+      <c r="GN24">
+        <v>854</v>
+      </c>
+      <c r="GO24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:195" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:197" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>0</v>
       </c>
@@ -16323,8 +16477,14 @@
       <c r="GM25">
         <v>1545.5</v>
       </c>
+      <c r="GN25">
+        <v>1879</v>
+      </c>
+      <c r="GO25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:195" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:197" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>0</v>
       </c>
@@ -16910,8 +17070,14 @@
       <c r="GM26">
         <v>2110.5</v>
       </c>
+      <c r="GN26">
+        <v>1287</v>
+      </c>
+      <c r="GO26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:195" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:197" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>0</v>
       </c>
@@ -17497,8 +17663,14 @@
       <c r="GM27">
         <v>2135</v>
       </c>
+      <c r="GN27">
+        <v>1404.5</v>
+      </c>
+      <c r="GO27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:195" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:197" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>0</v>
       </c>
@@ -18084,8 +18256,14 @@
       <c r="GM28">
         <v>2113.5</v>
       </c>
+      <c r="GN28">
+        <v>1418.5</v>
+      </c>
+      <c r="GO28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:195" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:197" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>0</v>
       </c>
@@ -18671,8 +18849,14 @@
       <c r="GM29">
         <v>1862.5</v>
       </c>
+      <c r="GN29">
+        <v>1080</v>
+      </c>
+      <c r="GO29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:195" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:197" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>0</v>
       </c>
@@ -19258,8 +19442,14 @@
       <c r="GM30">
         <v>1467</v>
       </c>
+      <c r="GN30">
+        <v>1422.5</v>
+      </c>
+      <c r="GO30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:195" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:197" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>0</v>
       </c>
@@ -19845,8 +20035,14 @@
       <c r="GM31">
         <v>1435</v>
       </c>
+      <c r="GN31">
+        <v>1235</v>
+      </c>
+      <c r="GO31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:195" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:197" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>0</v>
       </c>
@@ -20432,8 +20628,14 @@
       <c r="GM32">
         <v>1215</v>
       </c>
+      <c r="GN32">
+        <v>1180</v>
+      </c>
+      <c r="GO32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:195" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:197" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>0</v>
       </c>
@@ -21019,8 +21221,14 @@
       <c r="GM33">
         <v>1938</v>
       </c>
+      <c r="GN33">
+        <v>1120</v>
+      </c>
+      <c r="GO33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:195" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:197" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>0</v>
       </c>
@@ -21606,8 +21814,14 @@
       <c r="GM34">
         <v>1391.5</v>
       </c>
+      <c r="GN34">
+        <v>1172.5</v>
+      </c>
+      <c r="GO34">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:195" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:197" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>0</v>
       </c>
@@ -22193,8 +22407,14 @@
       <c r="GM35">
         <v>1216</v>
       </c>
+      <c r="GN35">
+        <v>1837</v>
+      </c>
+      <c r="GO35">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:195" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:197" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>0</v>
       </c>
@@ -22780,8 +23000,14 @@
       <c r="GM36">
         <v>1127</v>
       </c>
+      <c r="GN36">
+        <v>1137</v>
+      </c>
+      <c r="GO36">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:195" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:197" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>0</v>
       </c>
@@ -23367,8 +23593,14 @@
       <c r="GM37">
         <v>2039</v>
       </c>
+      <c r="GN37">
+        <v>2104</v>
+      </c>
+      <c r="GO37">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:195" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:197" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>0</v>
       </c>
@@ -23954,8 +24186,14 @@
       <c r="GM38">
         <v>1795</v>
       </c>
+      <c r="GN38">
+        <v>1235</v>
+      </c>
+      <c r="GO38">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:195" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:197" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>0</v>
       </c>
@@ -24541,8 +24779,14 @@
       <c r="GM39">
         <v>1321</v>
       </c>
+      <c r="GN39">
+        <v>1895</v>
+      </c>
+      <c r="GO39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:195" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:197" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>0</v>
       </c>
@@ -25128,8 +25372,14 @@
       <c r="GM40">
         <v>1127.5</v>
       </c>
+      <c r="GN40">
+        <v>1939</v>
+      </c>
+      <c r="GO40">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:195" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:197" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>0</v>
       </c>
@@ -25715,8 +25965,14 @@
       <c r="GM41">
         <v>1472.5</v>
       </c>
+      <c r="GN41">
+        <v>1090</v>
+      </c>
+      <c r="GO41">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:195" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:197" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>0</v>
       </c>
@@ -26302,8 +26558,14 @@
       <c r="GM42">
         <v>0</v>
       </c>
+      <c r="GN42">
+        <v>0</v>
+      </c>
+      <c r="GO42">
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:195" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:197" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>0</v>
       </c>
@@ -26887,6 +27149,12 @@
         <v>0</v>
       </c>
       <c r="GM43">
+        <v>0</v>
+      </c>
+      <c r="GN43">
+        <v>0</v>
+      </c>
+      <c r="GO43">
         <v>0</v>
       </c>
     </row>

--- a/rentals.xlsx
+++ b/rentals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\black\Documents\School\DS401COLCalculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC20C22-5C6C-4383-B77C-5913785C3940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B77C7E-4342-416E-9B0C-9D3C1F2FD405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Apartment Prices Granular" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
   <si>
     <t>SUNY College of Technology at Alfred</t>
   </si>
@@ -1457,8 +1457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:GO43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="GL7" workbookViewId="0">
-      <selection activeCell="GQ19" sqref="GQ19:GU34"/>
+    <sheetView tabSelected="1" topLeftCell="CZ1" workbookViewId="0">
+      <selection activeCell="DD11" sqref="DD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1633,7 +1633,6 @@
     <col min="168" max="168" width="34.109375" bestFit="1" customWidth="1"/>
     <col min="169" max="169" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="170" max="170" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="28.5546875" bestFit="1" customWidth="1"/>
     <col min="172" max="172" width="24" bestFit="1" customWidth="1"/>
     <col min="173" max="173" width="21.44140625" bestFit="1" customWidth="1"/>
     <col min="174" max="174" width="32.109375" bestFit="1" customWidth="1"/>
@@ -2170,9 +2169,6 @@
       <c r="FN1" t="s">
         <v>169</v>
       </c>
-      <c r="FO1" t="s">
-        <v>170</v>
-      </c>
       <c r="FP1" t="s">
         <v>171</v>
       </c>
@@ -2763,9 +2759,6 @@
       <c r="FN2">
         <v>1282</v>
       </c>
-      <c r="FO2">
-        <v>1669</v>
-      </c>
       <c r="FP2">
         <v>1419</v>
       </c>
@@ -3356,9 +3349,6 @@
       <c r="FN3">
         <v>1144</v>
       </c>
-      <c r="FO3">
-        <v>1561.5</v>
-      </c>
       <c r="FP3">
         <v>1510</v>
       </c>
@@ -3949,9 +3939,6 @@
       <c r="FN4">
         <v>1098.5</v>
       </c>
-      <c r="FO4">
-        <v>1324</v>
-      </c>
       <c r="FP4">
         <v>907</v>
       </c>
@@ -4542,9 +4529,6 @@
       <c r="FN5">
         <v>1129</v>
       </c>
-      <c r="FO5">
-        <v>1280</v>
-      </c>
       <c r="FP5">
         <v>916.5</v>
       </c>
@@ -5135,9 +5119,6 @@
       <c r="FN6">
         <v>1350</v>
       </c>
-      <c r="FO6">
-        <v>1436.5</v>
-      </c>
       <c r="FP6">
         <v>740</v>
       </c>
@@ -5728,9 +5709,6 @@
       <c r="FN7">
         <v>1119.5</v>
       </c>
-      <c r="FO7">
-        <v>1755</v>
-      </c>
       <c r="FP7">
         <v>785</v>
       </c>
@@ -6321,9 +6299,6 @@
       <c r="FN8">
         <v>1250</v>
       </c>
-      <c r="FO8">
-        <v>1421.5</v>
-      </c>
       <c r="FP8">
         <v>0</v>
       </c>
@@ -6914,9 +6889,6 @@
       <c r="FN9">
         <v>790</v>
       </c>
-      <c r="FO9">
-        <v>975</v>
-      </c>
       <c r="FP9">
         <v>0</v>
       </c>
@@ -7507,9 +7479,6 @@
       <c r="FN10">
         <v>665</v>
       </c>
-      <c r="FO10">
-        <v>1326.5</v>
-      </c>
       <c r="FP10">
         <v>0</v>
       </c>
@@ -8100,9 +8069,6 @@
       <c r="FN11">
         <v>700</v>
       </c>
-      <c r="FO11">
-        <v>1385</v>
-      </c>
       <c r="FP11">
         <v>0</v>
       </c>
@@ -8693,9 +8659,6 @@
       <c r="FN12">
         <v>714.5</v>
       </c>
-      <c r="FO12">
-        <v>1374.5</v>
-      </c>
       <c r="FP12">
         <v>0</v>
       </c>
@@ -9286,9 +9249,6 @@
       <c r="FN13">
         <v>725</v>
       </c>
-      <c r="FO13">
-        <v>1268.5</v>
-      </c>
       <c r="FP13">
         <v>0</v>
       </c>
@@ -9879,9 +9839,6 @@
       <c r="FN14">
         <v>612.5</v>
       </c>
-      <c r="FO14">
-        <v>1459</v>
-      </c>
       <c r="FP14">
         <v>0</v>
       </c>
@@ -10472,9 +10429,6 @@
       <c r="FN15">
         <v>0</v>
       </c>
-      <c r="FO15">
-        <v>1237.5</v>
-      </c>
       <c r="FP15">
         <v>0</v>
       </c>
@@ -11065,9 +11019,6 @@
       <c r="FN16">
         <v>0</v>
       </c>
-      <c r="FO16">
-        <v>1552.5</v>
-      </c>
       <c r="FP16">
         <v>0</v>
       </c>
@@ -11658,9 +11609,6 @@
       <c r="FN17">
         <v>0</v>
       </c>
-      <c r="FO17">
-        <v>1237.5</v>
-      </c>
       <c r="FP17">
         <v>0</v>
       </c>
@@ -12251,9 +12199,6 @@
       <c r="FN18">
         <v>0</v>
       </c>
-      <c r="FO18">
-        <v>1082</v>
-      </c>
       <c r="FP18">
         <v>0</v>
       </c>
@@ -12844,9 +12789,6 @@
       <c r="FN19">
         <v>0</v>
       </c>
-      <c r="FO19">
-        <v>1000</v>
-      </c>
       <c r="FP19">
         <v>0</v>
       </c>
@@ -13437,9 +13379,6 @@
       <c r="FN20">
         <v>0</v>
       </c>
-      <c r="FO20">
-        <v>1297.5</v>
-      </c>
       <c r="FP20">
         <v>0</v>
       </c>
@@ -14030,9 +13969,6 @@
       <c r="FN21">
         <v>0</v>
       </c>
-      <c r="FO21">
-        <v>1025</v>
-      </c>
       <c r="FP21">
         <v>0</v>
       </c>
@@ -14623,9 +14559,6 @@
       <c r="FN22">
         <v>0</v>
       </c>
-      <c r="FO22">
-        <v>1025</v>
-      </c>
       <c r="FP22">
         <v>0</v>
       </c>
@@ -15216,9 +15149,6 @@
       <c r="FN23">
         <v>0</v>
       </c>
-      <c r="FO23">
-        <v>1115</v>
-      </c>
       <c r="FP23">
         <v>0</v>
       </c>
@@ -15809,9 +15739,6 @@
       <c r="FN24">
         <v>0</v>
       </c>
-      <c r="FO24">
-        <v>0</v>
-      </c>
       <c r="FP24">
         <v>0</v>
       </c>
@@ -16402,9 +16329,6 @@
       <c r="FN25">
         <v>0</v>
       </c>
-      <c r="FO25">
-        <v>0</v>
-      </c>
       <c r="FP25">
         <v>0</v>
       </c>
@@ -16995,9 +16919,6 @@
       <c r="FN26">
         <v>0</v>
       </c>
-      <c r="FO26">
-        <v>0</v>
-      </c>
       <c r="FP26">
         <v>0</v>
       </c>
@@ -17588,9 +17509,6 @@
       <c r="FN27">
         <v>0</v>
       </c>
-      <c r="FO27">
-        <v>0</v>
-      </c>
       <c r="FP27">
         <v>0</v>
       </c>
@@ -18181,9 +18099,6 @@
       <c r="FN28">
         <v>0</v>
       </c>
-      <c r="FO28">
-        <v>0</v>
-      </c>
       <c r="FP28">
         <v>0</v>
       </c>
@@ -18774,9 +18689,6 @@
       <c r="FN29">
         <v>0</v>
       </c>
-      <c r="FO29">
-        <v>0</v>
-      </c>
       <c r="FP29">
         <v>0</v>
       </c>
@@ -19367,9 +19279,6 @@
       <c r="FN30">
         <v>0</v>
       </c>
-      <c r="FO30">
-        <v>0</v>
-      </c>
       <c r="FP30">
         <v>0</v>
       </c>
@@ -19960,9 +19869,6 @@
       <c r="FN31">
         <v>0</v>
       </c>
-      <c r="FO31">
-        <v>0</v>
-      </c>
       <c r="FP31">
         <v>0</v>
       </c>
@@ -20553,9 +20459,6 @@
       <c r="FN32">
         <v>0</v>
       </c>
-      <c r="FO32">
-        <v>0</v>
-      </c>
       <c r="FP32">
         <v>0</v>
       </c>
@@ -21146,9 +21049,6 @@
       <c r="FN33">
         <v>0</v>
       </c>
-      <c r="FO33">
-        <v>0</v>
-      </c>
       <c r="FP33">
         <v>0</v>
       </c>
@@ -21739,9 +21639,6 @@
       <c r="FN34">
         <v>0</v>
       </c>
-      <c r="FO34">
-        <v>0</v>
-      </c>
       <c r="FP34">
         <v>0</v>
       </c>
@@ -22332,9 +22229,6 @@
       <c r="FN35">
         <v>0</v>
       </c>
-      <c r="FO35">
-        <v>0</v>
-      </c>
       <c r="FP35">
         <v>0</v>
       </c>
@@ -22925,9 +22819,6 @@
       <c r="FN36">
         <v>0</v>
       </c>
-      <c r="FO36">
-        <v>0</v>
-      </c>
       <c r="FP36">
         <v>0</v>
       </c>
@@ -23518,9 +23409,6 @@
       <c r="FN37">
         <v>0</v>
       </c>
-      <c r="FO37">
-        <v>0</v>
-      </c>
       <c r="FP37">
         <v>0</v>
       </c>
@@ -24111,9 +23999,6 @@
       <c r="FN38">
         <v>0</v>
       </c>
-      <c r="FO38">
-        <v>0</v>
-      </c>
       <c r="FP38">
         <v>0</v>
       </c>
@@ -24704,9 +24589,6 @@
       <c r="FN39">
         <v>0</v>
       </c>
-      <c r="FO39">
-        <v>0</v>
-      </c>
       <c r="FP39">
         <v>0</v>
       </c>
@@ -25297,9 +25179,6 @@
       <c r="FN40">
         <v>0</v>
       </c>
-      <c r="FO40">
-        <v>0</v>
-      </c>
       <c r="FP40">
         <v>0</v>
       </c>
@@ -25890,9 +25769,6 @@
       <c r="FN41">
         <v>0</v>
       </c>
-      <c r="FO41">
-        <v>0</v>
-      </c>
       <c r="FP41">
         <v>0</v>
       </c>
@@ -26483,9 +26359,6 @@
       <c r="FN42">
         <v>0</v>
       </c>
-      <c r="FO42">
-        <v>0</v>
-      </c>
       <c r="FP42">
         <v>0</v>
       </c>
@@ -27074,9 +26947,6 @@
         <v>0</v>
       </c>
       <c r="FN43">
-        <v>0</v>
-      </c>
-      <c r="FO43">
         <v>0</v>
       </c>
       <c r="FP43">
